--- a/DIMSDocuments/Book1.xlsx
+++ b/DIMSDocuments/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Handez\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTSEMESTER\capston\DIMS\DIMSDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B835F4-BCD1-47E4-BCA3-6F1798710D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,12 +182,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,10 +220,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,16 +507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:23" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D8">
         <v>1</v>
       </c>
@@ -536,7 +559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D9">
         <v>2</v>
       </c>
@@ -549,12 +572,15 @@
       <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="5">
         <v>2</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
       <c r="V9">
         <v>2</v>
       </c>
@@ -562,25 +588,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="2">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="Q10" s="4">
         <v>3</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
       <c r="V10" s="2">
         <v>3</v>
       </c>
@@ -588,25 +624,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D11">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D11" s="6">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="5">
         <v>4</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q11">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="5">
         <v>4</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
       <c r="V11">
         <v>4</v>
       </c>
@@ -614,25 +660,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="4:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q12">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="Q12" s="5">
         <v>5</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
       <c r="V12" s="2">
         <v>4.0999999999999996</v>
       </c>
@@ -640,19 +694,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I13">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="5">
         <v>6</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
       <c r="Q13">
         <v>6</v>
       </c>
@@ -666,19 +728,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D14">
+    <row r="14" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="2">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4">
         <v>7</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
       <c r="V14">
         <v>6</v>
       </c>
@@ -686,19 +756,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D15">
+    <row r="15" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D15" s="3">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="5">
         <v>8</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
       <c r="V15" s="2">
         <v>7</v>
       </c>
@@ -706,55 +784,82 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D16">
+    <row r="16" spans="4:23" x14ac:dyDescent="0.3">
+      <c r="D16" s="3">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4">
         <v>9</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I17">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="5">
         <v>10</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="3">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="2">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4">
         <v>11</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D19">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D19" s="3">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
       <c r="I19">
         <v>12</v>
       </c>
@@ -762,13 +867,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D20">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="3">
         <v>13</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="2">
         <v>13</v>
       </c>
@@ -776,13 +884,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D21">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D21" s="3">
         <v>14</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
       <c r="I21">
         <v>14</v>
       </c>
@@ -790,7 +901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>15</v>
       </c>
@@ -798,7 +909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>16</v>
       </c>
@@ -806,7 +917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>17</v>
       </c>
@@ -814,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>18</v>
       </c>
